--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.01836676186039</v>
+        <v>1.161357666666667</v>
       </c>
       <c r="H2">
-        <v>5.01836676186039</v>
+        <v>3.484073</v>
       </c>
       <c r="I2">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="J2">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N2">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q2">
-        <v>257.0976574585447</v>
+        <v>277.6619577921313</v>
       </c>
       <c r="R2">
-        <v>257.0976574585447</v>
+        <v>2498.957620129181</v>
       </c>
       <c r="S2">
-        <v>0.09579688687839442</v>
+        <v>0.05193934158356846</v>
       </c>
       <c r="T2">
-        <v>0.09579688687839442</v>
+        <v>0.05193934158356846</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.01836676186039</v>
+        <v>1.161357666666667</v>
       </c>
       <c r="H3">
-        <v>5.01836676186039</v>
+        <v>3.484073</v>
       </c>
       <c r="I3">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="J3">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N3">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q3">
-        <v>587.287660986335</v>
+        <v>135.9383894204508</v>
       </c>
       <c r="R3">
-        <v>587.287660986335</v>
+        <v>1223.445504784057</v>
       </c>
       <c r="S3">
-        <v>0.2188286357049223</v>
+        <v>0.02542858409042391</v>
       </c>
       <c r="T3">
-        <v>0.2188286357049223</v>
+        <v>0.02542858409042391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.01836676186039</v>
+        <v>1.161357666666667</v>
       </c>
       <c r="H4">
-        <v>5.01836676186039</v>
+        <v>3.484073</v>
       </c>
       <c r="I4">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="J4">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N4">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q4">
-        <v>694.2133089267825</v>
+        <v>198.7766194381967</v>
       </c>
       <c r="R4">
-        <v>694.2133089267825</v>
+        <v>1788.98957494377</v>
       </c>
       <c r="S4">
-        <v>0.2586700885653075</v>
+        <v>0.03718307980654913</v>
       </c>
       <c r="T4">
-        <v>0.2586700885653075</v>
+        <v>0.03718307980654913</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>5.01836676186039</v>
+        <v>1.161357666666667</v>
       </c>
       <c r="H5">
-        <v>5.01836676186039</v>
+        <v>3.484073</v>
       </c>
       <c r="I5">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="J5">
-        <v>0.6787077035312032</v>
+        <v>0.1270850363824361</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N5">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q5">
-        <v>282.9027424843914</v>
+        <v>67.005538636788</v>
       </c>
       <c r="R5">
-        <v>282.9027424843914</v>
+        <v>603.049847731092</v>
       </c>
       <c r="S5">
-        <v>0.1054120923825791</v>
+        <v>0.0125340309018946</v>
       </c>
       <c r="T5">
-        <v>0.1054120923825791</v>
+        <v>0.0125340309018946</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.37563618779034</v>
+        <v>5.168173666666667</v>
       </c>
       <c r="H6">
-        <v>2.37563618779034</v>
+        <v>15.504521</v>
       </c>
       <c r="I6">
-        <v>0.3212922964687967</v>
+        <v>0.565542861868062</v>
       </c>
       <c r="J6">
-        <v>0.3212922964687967</v>
+        <v>0.565542861868062</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N6">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q6">
-        <v>121.7070269746927</v>
+        <v>1235.627283208249</v>
       </c>
       <c r="R6">
-        <v>121.7070269746927</v>
+        <v>11120.64554887424</v>
       </c>
       <c r="S6">
-        <v>0.04534912690630134</v>
+        <v>0.2311359757125096</v>
       </c>
       <c r="T6">
-        <v>0.04534912690630134</v>
+        <v>0.2311359757125096</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.37563618779034</v>
+        <v>5.168173666666667</v>
       </c>
       <c r="H7">
-        <v>2.37563618779034</v>
+        <v>15.504521</v>
       </c>
       <c r="I7">
-        <v>0.3212922964687967</v>
+        <v>0.565542861868062</v>
       </c>
       <c r="J7">
-        <v>0.3212922964687967</v>
+        <v>0.565542861868062</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N7">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q7">
-        <v>278.0151165286026</v>
+        <v>604.9412895411655</v>
       </c>
       <c r="R7">
-        <v>278.0151165286026</v>
+        <v>5444.47160587049</v>
       </c>
       <c r="S7">
-        <v>0.1035909192321932</v>
+        <v>0.1131600905119506</v>
       </c>
       <c r="T7">
-        <v>0.1035909192321932</v>
+        <v>0.1131600905119506</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.37563618779034</v>
+        <v>5.168173666666667</v>
       </c>
       <c r="H8">
-        <v>2.37563618779034</v>
+        <v>15.504521</v>
       </c>
       <c r="I8">
-        <v>0.3212922964687967</v>
+        <v>0.565542861868062</v>
       </c>
       <c r="J8">
-        <v>0.3212922964687967</v>
+        <v>0.565542861868062</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N8">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q8">
-        <v>328.6324688872988</v>
+        <v>884.5785580234767</v>
       </c>
       <c r="R8">
-        <v>328.6324688872988</v>
+        <v>7961.207022211291</v>
       </c>
       <c r="S8">
-        <v>0.1224513974875103</v>
+        <v>0.1654689329716446</v>
       </c>
       <c r="T8">
-        <v>0.1224513974875103</v>
+        <v>0.1654689329716446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.168173666666667</v>
+      </c>
+      <c r="H9">
+        <v>15.504521</v>
+      </c>
+      <c r="I9">
+        <v>0.565542861868062</v>
+      </c>
+      <c r="J9">
+        <v>0.565542861868062</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>57.695868</v>
+      </c>
+      <c r="N9">
+        <v>173.087604</v>
+      </c>
+      <c r="O9">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="P9">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="Q9">
+        <v>298.182265673076</v>
+      </c>
+      <c r="R9">
+        <v>2683.640391057684</v>
+      </c>
+      <c r="S9">
+        <v>0.05577786267195713</v>
+      </c>
+      <c r="T9">
+        <v>0.05577786267195713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.808898333333333</v>
+      </c>
+      <c r="H10">
+        <v>8.426695</v>
+      </c>
+      <c r="I10">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="J10">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>239.0839323333333</v>
+      </c>
+      <c r="N10">
+        <v>717.251797</v>
+      </c>
+      <c r="O10">
+        <v>0.4086975387666237</v>
+      </c>
+      <c r="P10">
+        <v>0.4086975387666237</v>
+      </c>
+      <c r="Q10">
+        <v>671.5624590578794</v>
+      </c>
+      <c r="R10">
+        <v>6044.062131520916</v>
+      </c>
+      <c r="S10">
+        <v>0.1256222214705457</v>
+      </c>
+      <c r="T10">
+        <v>0.1256222214705457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.37563618779034</v>
-      </c>
-      <c r="H9">
-        <v>2.37563618779034</v>
-      </c>
-      <c r="I9">
-        <v>0.3212922964687967</v>
-      </c>
-      <c r="J9">
-        <v>0.3212922964687967</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>56.3734688812411</v>
-      </c>
-      <c r="N9">
-        <v>56.3734688812411</v>
-      </c>
-      <c r="O9">
-        <v>0.155312945225371</v>
-      </c>
-      <c r="P9">
-        <v>0.155312945225371</v>
-      </c>
-      <c r="Q9">
-        <v>133.922852705549</v>
-      </c>
-      <c r="R9">
-        <v>133.922852705549</v>
-      </c>
-      <c r="S9">
-        <v>0.04990085284279187</v>
-      </c>
-      <c r="T9">
-        <v>0.04990085284279187</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.808898333333333</v>
+      </c>
+      <c r="H11">
+        <v>8.426695</v>
+      </c>
+      <c r="I11">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="J11">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>117.0512696666667</v>
+      </c>
+      <c r="N11">
+        <v>351.153809</v>
+      </c>
+      <c r="O11">
+        <v>0.2000910950200451</v>
+      </c>
+      <c r="P11">
+        <v>0.2000910950200451</v>
+      </c>
+      <c r="Q11">
+        <v>328.7851162812506</v>
+      </c>
+      <c r="R11">
+        <v>2959.066046531255</v>
+      </c>
+      <c r="S11">
+        <v>0.06150242041767055</v>
+      </c>
+      <c r="T11">
+        <v>0.06150242041767055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.808898333333333</v>
+      </c>
+      <c r="H12">
+        <v>8.426695</v>
+      </c>
+      <c r="I12">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="J12">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>171.15883</v>
+      </c>
+      <c r="N12">
+        <v>513.47649</v>
+      </c>
+      <c r="O12">
+        <v>0.2925842480357353</v>
+      </c>
+      <c r="P12">
+        <v>0.2925842480357353</v>
+      </c>
+      <c r="Q12">
+        <v>480.7677523222833</v>
+      </c>
+      <c r="R12">
+        <v>4326.90977090055</v>
+      </c>
+      <c r="S12">
+        <v>0.08993223525754153</v>
+      </c>
+      <c r="T12">
+        <v>0.08993223525754153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.808898333333333</v>
+      </c>
+      <c r="H13">
+        <v>8.426695</v>
+      </c>
+      <c r="I13">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="J13">
+        <v>0.3073721017495019</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>57.695868</v>
+      </c>
+      <c r="N13">
+        <v>173.087604</v>
+      </c>
+      <c r="O13">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="P13">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="Q13">
+        <v>162.06182746542</v>
+      </c>
+      <c r="R13">
+        <v>1458.55644718878</v>
+      </c>
+      <c r="S13">
+        <v>0.03031522460374415</v>
+      </c>
+      <c r="T13">
+        <v>0.03031522460374415</v>
       </c>
     </row>
   </sheetData>
